--- a/output_analysis/START_1_SEC_0.5_ENERGY_1.5_EV-FACTOR_16_EV_50_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_1_SEC_0.5_ENERGY_1.5_EV-FACTOR_16_EV_50_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,488 +434,440 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6 20 29 65 80 89</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4 62 157</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>130</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>16 119 128 130 147 196</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7 8 135</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>192</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>86</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17 33 67 68 148</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10 49 83 101 170</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>156</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21 96 145</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>44 55 70 141</t>
-        </is>
+      <c r="D5" t="n">
+        <v>65</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>26 46 108 143</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>67 117 140 211 268</t>
-        </is>
+      <c r="D6" t="n">
+        <v>67</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F6" t="n">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>132</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>35 48 51 85 229</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>74 92 127 138 160 166</t>
-        </is>
+      <c r="D7" t="n">
+        <v>128</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" t="n">
-        <v>183</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>42 45 79 117 136 216</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>84 116</t>
-        </is>
+      <c r="D8" t="n">
+        <v>103</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H8" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>53 59 74 77 168 186 190</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>115 120 149 163 174 215 218</t>
-        </is>
+      <c r="D9" t="n">
+        <v>112</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" t="n">
-        <v>133</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>64 139 183</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>148 177 182 213 236 238</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>58</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
-      </c>
-      <c r="H10" t="n">
-        <v>137</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>86 125 140 146 294</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>156 168 188 195 198 200</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>91</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H11" t="n">
-        <v>124</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>127 189 198 243</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>102</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>135 209 237 245</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" t="n">
+        <v>98</v>
+      </c>
+      <c r="F13" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>159 203 227 240 249</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>98</v>
-      </c>
-      <c r="F12" t="n">
-        <v>128</v>
-      </c>
-      <c r="G12" t="n">
-        <v>98</v>
-      </c>
-      <c r="H12" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>142 150 225 249</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>77</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>149 180 251</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>71</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>166 178 234 248</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>87</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>169 194 196 239 262</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>100</v>
-      </c>
-      <c r="F13" t="n">
-        <v>84</v>
-      </c>
-      <c r="G13" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>186 201 283</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>98</v>
-      </c>
-      <c r="F14" t="n">
-        <v>91</v>
-      </c>
-      <c r="G14" t="n">
-        <v>98</v>
-      </c>
-      <c r="H14" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>222 225 279 297</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>100</v>
-      </c>
-      <c r="F15" t="n">
-        <v>78</v>
-      </c>
-      <c r="G15" t="n">
-        <v>100</v>
-      </c>
-      <c r="H15" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>86</v>
-      </c>
-      <c r="F16" t="n">
-        <v>43</v>
-      </c>
       <c r="G16" t="n">
-        <v>86</v>
-      </c>
-      <c r="H16" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>15</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>260 289</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>49</v>
       </c>
       <c r="E17" t="n">
         <v>98</v>
       </c>
       <c r="F17" t="n">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>98</v>
-      </c>
-      <c r="H17" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
